--- a/5MTests/5MeterTests.xlsx
+++ b/5MTests/5MeterTests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KholySa\OneDrive\Documents\HS Osnabruck\Tests\10MTests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KholySa\OneDrive\Documents\HS Osnabruck\Tests\5MTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DE3F94-83F3-4F86-85A7-35EE1AE1FC24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4FA600-56F2-46CE-8481-7F02F2BB7583}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,19 +72,19 @@
     <t>5 Meter Jumps</t>
   </si>
   <si>
-    <t>2 Meter Jumps</t>
-  </si>
-  <si>
     <t>1 Meter Jumps</t>
   </si>
   <si>
     <t>0.5 Meter Jumps</t>
   </si>
   <si>
-    <t>0.2 Meter Jumps</t>
-  </si>
-  <si>
     <t>0.1 Meter Jumps</t>
+  </si>
+  <si>
+    <t>2.5 Meter Jumps</t>
+  </si>
+  <si>
+    <t>0.25 Meter Jumps</t>
   </si>
 </sst>
 </file>
@@ -108,15 +108,21 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -417,29 +423,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,22 +588,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,771 +948,831 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="14"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="24">
         <v>18</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="24">
         <v>-30</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="24">
         <v>22</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="24">
         <v>30</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="25">
         <v>12</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="24">
         <v>22</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="24">
         <v>0</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="24">
         <v>17</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="24">
         <v>-5</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="24">
         <v>5</v>
       </c>
-      <c r="M5" s="18"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="28">
         <v>-75</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="28">
         <v>-176</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="28">
         <v>-149</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3">
+      <c r="F6" s="28"/>
+      <c r="G6" s="29">
         <v>-80</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="28">
         <v>-108</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="28">
         <v>-141</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="28">
         <v>-136</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2">
+      <c r="K6" s="28"/>
+      <c r="L6" s="28">
         <v>-110</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="28">
         <v>86</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="28">
         <v>41</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="28">
         <v>53</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="28">
         <v>58</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="29">
         <v>29</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="28">
         <v>-46</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="28">
         <v>-37</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="28">
         <v>-40</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="28">
         <v>-55</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="28">
         <v>-29</v>
       </c>
-      <c r="M7" s="20"/>
+      <c r="M7" s="30"/>
     </row>
     <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="32">
         <v>-16</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="32">
         <v>-17</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="32">
         <v>-7</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="32">
         <v>-41</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="33">
         <v>8</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="32">
         <v>-18</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="32">
         <v>-8</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="32">
         <v>-41</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="32">
         <v>3</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="32">
         <v>-16</v>
       </c>
-      <c r="M8" s="22"/>
+      <c r="M8" s="34"/>
     </row>
     <row r="9" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="4">
+        <v>-41</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>54</v>
+      </c>
+      <c r="F10" s="4">
+        <v>36</v>
+      </c>
+      <c r="G10" s="38">
+        <v>-37</v>
+      </c>
+      <c r="H10" s="35">
+        <v>14</v>
+      </c>
+      <c r="I10" s="4">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4">
+        <v>38</v>
+      </c>
+      <c r="K10" s="4">
+        <v>29</v>
+      </c>
+      <c r="L10" s="4">
+        <v>42</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" s="39">
+        <v>-9</v>
+      </c>
+      <c r="H11" s="36">
+        <v>-70</v>
+      </c>
+      <c r="I11" s="2">
+        <v>-35</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-22</v>
+      </c>
+      <c r="K11" s="2">
+        <v>-25</v>
+      </c>
+      <c r="L11" s="2">
+        <v>-49</v>
+      </c>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-66</v>
+      </c>
+      <c r="E12" s="2">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-77</v>
+      </c>
+      <c r="G12" s="39">
+        <v>20</v>
+      </c>
+      <c r="H12" s="36">
+        <v>153</v>
+      </c>
+      <c r="I12" s="2">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2">
+        <v>81</v>
+      </c>
+      <c r="K12" s="2">
+        <v>53</v>
+      </c>
+      <c r="L12" s="2">
         <v>55</v>
       </c>
-      <c r="D10" s="8">
-        <v>38</v>
-      </c>
-      <c r="E10" s="8">
-        <v>47</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-17</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-17</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-8</v>
+      </c>
+      <c r="F13" s="5">
         <v>-2</v>
       </c>
-      <c r="G10" s="9">
-        <v>-44</v>
-      </c>
-      <c r="H10" s="8">
-        <v>9</v>
-      </c>
-      <c r="I10" s="8">
-        <v>-21</v>
-      </c>
-      <c r="J10" s="8">
-        <v>5</v>
-      </c>
-      <c r="K10" s="8">
-        <v>10</v>
-      </c>
-      <c r="L10" s="8">
-        <v>15</v>
-      </c>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="22"/>
+      <c r="G13" s="40">
+        <v>-4</v>
+      </c>
+      <c r="H13" s="37">
+        <v>39</v>
+      </c>
+      <c r="I13" s="5">
+        <v>33</v>
+      </c>
+      <c r="J13" s="5">
+        <v>26</v>
+      </c>
+      <c r="K13" s="5">
+        <v>48</v>
+      </c>
+      <c r="L13" s="5">
+        <v>56</v>
+      </c>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="16"/>
+        <v>18</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8">
-        <v>8</v>
-      </c>
-      <c r="D15" s="8">
-        <v>-47</v>
-      </c>
-      <c r="E15" s="8">
-        <v>10</v>
-      </c>
-      <c r="F15" s="8">
-        <v>23</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="C15" s="4">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-94</v>
+      </c>
+      <c r="E15" s="4">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4">
+        <v>-89</v>
+      </c>
+      <c r="G15" s="38">
+        <v>4</v>
+      </c>
+      <c r="H15" s="35">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>14</v>
+      </c>
+      <c r="J15" s="4">
+        <v>12</v>
+      </c>
+      <c r="K15" s="4">
+        <v>24</v>
+      </c>
+      <c r="L15" s="4">
+        <v>32</v>
+      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-18</v>
+      </c>
+      <c r="D16" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-36</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="39">
+        <v>-43</v>
+      </c>
+      <c r="H16" s="36">
+        <v>-27</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-15</v>
+      </c>
+      <c r="J16" s="2">
+        <v>-37</v>
+      </c>
+      <c r="K16" s="2">
         <v>-20</v>
       </c>
-      <c r="H15" s="8">
-        <v>-1</v>
-      </c>
-      <c r="I15" s="8">
-        <v>3</v>
-      </c>
-      <c r="J15" s="8">
-        <v>20</v>
-      </c>
-      <c r="K15" s="8">
-        <v>23</v>
-      </c>
-      <c r="L15" s="8">
-        <v>29</v>
-      </c>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="20"/>
+      <c r="L16" s="2">
+        <v>-32</v>
+      </c>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="20"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="22"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="17"/>
     </row>
     <row r="20" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="8">
-        <v>-12</v>
-      </c>
-      <c r="D20" s="8">
-        <v>34</v>
-      </c>
-      <c r="E20" s="8">
-        <v>50</v>
-      </c>
-      <c r="F20" s="8">
-        <v>-31</v>
-      </c>
-      <c r="G20" s="9">
-        <v>66</v>
-      </c>
-      <c r="H20" s="8">
-        <v>81</v>
-      </c>
-      <c r="I20" s="8">
-        <v>70</v>
-      </c>
-      <c r="J20" s="8">
-        <v>65</v>
-      </c>
-      <c r="K20" s="8">
-        <v>80</v>
-      </c>
-      <c r="L20" s="8">
-        <v>66</v>
-      </c>
-      <c r="M20" s="18"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="20"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="20"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="22"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="17"/>
     </row>
     <row r="25" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="18"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="20"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="20"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="22"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="11"/>
     </row>
     <row r="29" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="17"/>
     </row>
     <row r="30" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="18"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="20"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="20"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="22"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="11"/>
     </row>
     <row r="34" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="17"/>
     </row>
     <row r="35" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="18"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="7"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="2"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="20"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="2"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="20"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="26"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="B4:M4"/>
     <mergeCell ref="B34:M34"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B14:M14"/>
     <mergeCell ref="B19:M19"/>
     <mergeCell ref="B24:M24"/>
     <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="B4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/5MTests/5MeterTests.xlsx
+++ b/5MTests/5MeterTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KholySa\OneDrive\Documents\HS Osnabruck\Tests\5MTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4FA600-56F2-46CE-8481-7F02F2BB7583}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B3D87F-32FA-454D-A465-B80C7B934DC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,30 +564,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -609,6 +585,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,7 +926,7 @@
   <dimension ref="B1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="B29" sqref="B1:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,29 +948,29 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="19"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1001,180 +1001,180 @@
       <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="22"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="16">
         <v>18</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="16">
         <v>-30</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="16">
         <v>22</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="16">
         <v>30</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="17">
         <v>12</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="16">
         <v>22</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="16">
         <v>0</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="16">
         <v>17</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="16">
         <v>-5</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="16">
         <v>5</v>
       </c>
-      <c r="M5" s="26"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="20">
         <v>-75</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="20">
         <v>-176</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="20">
         <v>-149</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29">
+      <c r="F6" s="20"/>
+      <c r="G6" s="21">
         <v>-80</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="20">
         <v>-108</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="20">
         <v>-141</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="20">
         <v>-136</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20">
         <v>-110</v>
       </c>
-      <c r="M6" s="30"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="20">
         <v>86</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="20">
         <v>41</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="20">
         <v>53</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="20">
         <v>58</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="21">
         <v>29</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="20">
         <v>-46</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="20">
         <v>-37</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="20">
         <v>-40</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="20">
         <v>-55</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="20">
         <v>-29</v>
       </c>
-      <c r="M7" s="30"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="24">
         <v>-16</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="24">
         <v>-17</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="24">
         <v>-7</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="24">
         <v>-41</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="25">
         <v>8</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="24">
         <v>-18</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="24">
         <v>-8</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="24">
         <v>-41</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="24">
         <v>3</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="24">
         <v>-16</v>
       </c>
-      <c r="M8" s="34"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
@@ -1192,10 +1192,10 @@
       <c r="F10" s="4">
         <v>36</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="30">
         <v>-37</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="27">
         <v>14</v>
       </c>
       <c r="I10" s="4">
@@ -1228,10 +1228,10 @@
       <c r="F11" s="2">
         <v>14</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="31">
         <v>-9</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="28">
         <v>-70</v>
       </c>
       <c r="I11" s="2">
@@ -1264,10 +1264,10 @@
       <c r="F12" s="2">
         <v>-77</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="31">
         <v>20</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="28">
         <v>153</v>
       </c>
       <c r="I12" s="2">
@@ -1300,10 +1300,10 @@
       <c r="F13" s="5">
         <v>-2</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="32">
         <v>-4</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="29">
         <v>39</v>
       </c>
       <c r="I13" s="5">
@@ -1321,20 +1321,20 @@
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="17"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="43"/>
     </row>
     <row r="15" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
@@ -1352,10 +1352,10 @@
       <c r="F15" s="4">
         <v>-89</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="30">
         <v>4</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="27">
         <v>5</v>
       </c>
       <c r="I15" s="4">
@@ -1388,10 +1388,10 @@
       <c r="F16" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="31">
         <v>-43</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="28">
         <v>-27</v>
       </c>
       <c r="I16" s="2">
@@ -1412,129 +1412,249 @@
       <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="C17" s="2">
+        <v>91</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>98</v>
+      </c>
+      <c r="F17" s="2">
+        <v>21</v>
+      </c>
+      <c r="G17" s="31">
+        <v>24</v>
+      </c>
+      <c r="H17" s="28">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-8</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>-2</v>
+      </c>
+      <c r="L17" s="2">
+        <v>-15</v>
+      </c>
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="C18" s="5">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-16</v>
+      </c>
+      <c r="E18" s="5">
+        <v>17</v>
+      </c>
+      <c r="F18" s="5">
+        <v>-57</v>
+      </c>
+      <c r="G18" s="32">
+        <v>21</v>
+      </c>
+      <c r="H18" s="29">
+        <v>12</v>
+      </c>
+      <c r="I18" s="5">
+        <v>8</v>
+      </c>
+      <c r="J18" s="5">
+        <v>5</v>
+      </c>
+      <c r="K18" s="5">
+        <v>8</v>
+      </c>
+      <c r="L18" s="5">
+        <v>6</v>
+      </c>
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="17"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
     </row>
     <row r="20" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="C20" s="4">
+        <v>-80</v>
+      </c>
+      <c r="D20" s="4">
+        <v>-43</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-80</v>
+      </c>
+      <c r="F20" s="4">
+        <v>-5</v>
+      </c>
+      <c r="G20" s="30">
+        <v>-109</v>
+      </c>
+      <c r="H20" s="27">
+        <v>39</v>
+      </c>
+      <c r="I20" s="4">
+        <v>37</v>
+      </c>
+      <c r="J20" s="4">
+        <v>37</v>
+      </c>
+      <c r="K20" s="4">
+        <v>30</v>
+      </c>
+      <c r="L20" s="4">
+        <v>45</v>
+      </c>
       <c r="M20" s="7"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="C21" s="2">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-53</v>
+      </c>
+      <c r="E21" s="2">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-41</v>
+      </c>
+      <c r="G21" s="31">
+        <v>51</v>
+      </c>
+      <c r="H21" s="28">
+        <v>21</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2">
+        <v>-2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>-16</v>
+      </c>
+      <c r="L21" s="2">
+        <v>16</v>
+      </c>
       <c r="M21" s="9"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="C22" s="2">
+        <v>100</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2">
+        <v>114</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-30</v>
+      </c>
+      <c r="G22" s="31">
+        <v>-78</v>
+      </c>
+      <c r="H22" s="28">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2">
+        <v>-9</v>
+      </c>
+      <c r="L22" s="2">
+        <v>15</v>
+      </c>
       <c r="M22" s="9"/>
     </row>
     <row r="23" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="C23" s="5">
+        <v>29</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-51</v>
+      </c>
+      <c r="E23" s="5">
+        <v>22</v>
+      </c>
+      <c r="F23" s="5">
+        <v>-32</v>
+      </c>
+      <c r="G23" s="34">
+        <v>-22</v>
+      </c>
+      <c r="H23" s="29">
+        <v>14</v>
+      </c>
+      <c r="I23" s="5">
+        <v>30</v>
+      </c>
+      <c r="J23" s="5">
+        <v>5</v>
+      </c>
+      <c r="K23" s="5">
+        <v>14</v>
+      </c>
+      <c r="L23" s="5">
+        <v>7</v>
+      </c>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="17"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
     </row>
     <row r="25" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
@@ -1544,8 +1664,8 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="35"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -1560,8 +1680,8 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="36"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1576,8 +1696,8 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="36"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1592,8 +1712,8 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="37"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1601,20 +1721,20 @@
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="17"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="43"/>
     </row>
     <row r="30" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
@@ -1624,8 +1744,8 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="35"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1640,8 +1760,8 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="36"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1656,8 +1776,8 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="36"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1672,8 +1792,8 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="37"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -1681,20 +1801,20 @@
       <c r="M33" s="11"/>
     </row>
     <row r="34" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="17"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="43"/>
     </row>
     <row r="35" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
@@ -1704,8 +1824,8 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="35"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -1720,8 +1840,8 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="36"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1736,8 +1856,8 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="36"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1752,8 +1872,8 @@
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="41"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="33"/>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -1762,17 +1882,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="B4:M4"/>
     <mergeCell ref="B34:M34"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B14:M14"/>
     <mergeCell ref="B19:M19"/>
     <mergeCell ref="B24:M24"/>
     <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="B4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/5MTests/5MeterTests.xlsx
+++ b/5MTests/5MeterTests.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KholySa\OneDrive\Documents\HS Osnabruck\Tests\5MTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B3D87F-32FA-454D-A465-B80C7B934DC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006AC9F3-38F1-49FC-944A-22F05DA35F0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -585,6 +590,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,15 +612,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -925,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B29" sqref="B1:M29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,29 +953,29 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="37"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1001,23 +1006,23 @@
       <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="40"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="43"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1161,20 +1166,20 @@
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="43"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
@@ -1321,20 +1326,20 @@
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="43"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
@@ -1481,20 +1486,20 @@
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="43"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="20" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
@@ -1641,131 +1646,252 @@
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="43"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38"/>
     </row>
     <row r="25" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="C25" s="4">
+        <v>-7</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-89</v>
+      </c>
+      <c r="E25" s="4">
+        <v>30</v>
+      </c>
+      <c r="F25" s="4">
+        <v>-57</v>
+      </c>
+      <c r="G25" s="30">
+        <v>54</v>
+      </c>
+      <c r="H25" s="27">
+        <v>77</v>
+      </c>
+      <c r="I25" s="4">
+        <v>52</v>
+      </c>
+      <c r="J25" s="4">
+        <v>62</v>
+      </c>
+      <c r="K25" s="4">
+        <v>73</v>
+      </c>
+      <c r="L25" s="4">
+        <v>73</v>
+      </c>
       <c r="M25" s="7"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="C26" s="2">
+        <v>-116</v>
+      </c>
+      <c r="D26" s="2">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-106</v>
+      </c>
+      <c r="F26" s="2">
+        <v>14</v>
+      </c>
+      <c r="G26" s="31">
+        <v>146</v>
+      </c>
+      <c r="H26" s="28">
+        <v>35</v>
+      </c>
+      <c r="I26" s="2">
+        <v>31</v>
+      </c>
+      <c r="J26" s="2">
+        <v>38</v>
+      </c>
+      <c r="K26" s="2">
+        <v>22</v>
+      </c>
+      <c r="L26" s="2">
+        <v>13</v>
+      </c>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="C27" s="2">
+        <v>-95</v>
+      </c>
+      <c r="D27" s="2">
+        <v>67</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-105</v>
+      </c>
+      <c r="F27" s="2">
+        <v>47</v>
+      </c>
+      <c r="G27" s="31">
+        <v>-69</v>
+      </c>
+      <c r="H27" s="28">
+        <v>33</v>
+      </c>
+      <c r="I27" s="2">
+        <v>80</v>
+      </c>
+      <c r="J27" s="2">
+        <v>113</v>
+      </c>
+      <c r="K27" s="2">
+        <v>74</v>
+      </c>
+      <c r="L27" s="2">
+        <v>100</v>
+      </c>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="C28" s="5">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5">
+        <v>-28</v>
+      </c>
+      <c r="E28" s="5">
+        <v>34</v>
+      </c>
+      <c r="F28" s="5">
+        <v>-68</v>
+      </c>
+      <c r="G28" s="34">
+        <v>35</v>
+      </c>
+      <c r="H28" s="29">
+        <v>9</v>
+      </c>
+      <c r="I28" s="5">
+        <v>49</v>
+      </c>
+      <c r="J28" s="5">
+        <v>22</v>
+      </c>
+      <c r="K28" s="5">
+        <v>65</v>
+      </c>
+      <c r="L28" s="5">
+        <v>21</v>
+      </c>
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="43"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="38"/>
     </row>
     <row r="30" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="C30" s="4">
+        <v>-20</v>
+      </c>
+      <c r="D30" s="4">
+        <v>-122</v>
+      </c>
+      <c r="E30" s="4">
+        <v>86</v>
+      </c>
+      <c r="F30" s="4">
+        <v>-124</v>
+      </c>
+      <c r="G30" s="30">
+        <v>6</v>
+      </c>
+      <c r="H30" s="27">
+        <v>-5</v>
+      </c>
+      <c r="I30" s="4">
+        <v>14</v>
+      </c>
+      <c r="J30" s="4">
+        <v>-4</v>
+      </c>
+      <c r="K30" s="4">
+        <v>31</v>
+      </c>
+      <c r="L30" s="4">
+        <v>12</v>
+      </c>
       <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="C31" s="2">
+        <v>-26</v>
+      </c>
+      <c r="D31" s="2">
+        <v>80</v>
+      </c>
+      <c r="E31" s="2">
+        <f>--120</f>
+        <v>120</v>
+      </c>
+      <c r="F31" s="2">
+        <v>67</v>
+      </c>
+      <c r="G31" s="31">
+        <v>-162</v>
+      </c>
+      <c r="H31" s="28">
+        <v>-4</v>
+      </c>
+      <c r="I31" s="2">
+        <v>46</v>
+      </c>
+      <c r="J31" s="2">
+        <v>43</v>
+      </c>
+      <c r="K31" s="2">
+        <v>32</v>
+      </c>
+      <c r="L31" s="2">
+        <v>60</v>
+      </c>
       <c r="M31" s="9"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
@@ -1801,20 +1927,20 @@
       <c r="M33" s="11"/>
     </row>
     <row r="34" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="43"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="38"/>
     </row>
     <row r="35" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
@@ -1882,17 +2008,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="B4:M4"/>
     <mergeCell ref="B34:M34"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B14:M14"/>
     <mergeCell ref="B19:M19"/>
     <mergeCell ref="B24:M24"/>
     <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="B4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/5MTests/5MeterTests.xlsx
+++ b/5MTests/5MeterTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KholySa\OneDrive\Documents\HS Osnabruck\Tests\5MTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006AC9F3-38F1-49FC-944A-22F05DA35F0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EECE84B-DA67-4E00-9A55-A4EAE77FFFC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,15 +590,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,6 +603,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -930,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -953,29 +953,29 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42" t="s">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="40"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1006,23 +1006,23 @@
       <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1166,20 +1166,20 @@
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="38"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
@@ -1326,20 +1326,20 @@
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="43"/>
     </row>
     <row r="15" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
@@ -1486,20 +1486,20 @@
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
     </row>
     <row r="20" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
@@ -1646,20 +1646,20 @@
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="38"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
     </row>
     <row r="25" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
@@ -1806,20 +1806,20 @@
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="38"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="43"/>
     </row>
     <row r="30" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
@@ -1898,15 +1898,31 @@
       <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="C32" s="2">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-105</v>
+      </c>
+      <c r="E32" s="2">
+        <v>37</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-36</v>
+      </c>
       <c r="G32" s="31"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="H32" s="28">
+        <v>-10</v>
+      </c>
+      <c r="I32" s="2">
+        <v>-38</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>-58</v>
+      </c>
       <c r="L32" s="2"/>
       <c r="M32" s="9"/>
     </row>
@@ -1914,33 +1930,53 @@
       <c r="B33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="C33" s="5">
+        <v>-70</v>
+      </c>
+      <c r="D33" s="5">
+        <v>29</v>
+      </c>
+      <c r="E33" s="5">
+        <v>-57</v>
+      </c>
+      <c r="F33" s="5">
+        <v>-8</v>
+      </c>
+      <c r="G33" s="34">
+        <v>-15</v>
+      </c>
+      <c r="H33" s="29">
+        <v>-63</v>
+      </c>
+      <c r="I33" s="5">
+        <v>-58</v>
+      </c>
+      <c r="J33" s="5">
+        <v>-62</v>
+      </c>
+      <c r="K33" s="5">
+        <v>-61</v>
+      </c>
+      <c r="L33" s="5">
+        <v>-74</v>
+      </c>
       <c r="M33" s="11"/>
     </row>
     <row r="34" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="38"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="43"/>
     </row>
     <row r="35" spans="2:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
@@ -2008,17 +2044,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="B4:M4"/>
     <mergeCell ref="B34:M34"/>
     <mergeCell ref="B9:M9"/>
     <mergeCell ref="B14:M14"/>
     <mergeCell ref="B19:M19"/>
     <mergeCell ref="B24:M24"/>
     <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="B4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/5MTests/5MeterTests.xlsx
+++ b/5MTests/5MeterTests.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KholySa\OneDrive\Documents\HS Osnabruck\Tests\5MTests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41214494-66AD-4CC7-BF40-7950318F624A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>Tests: 10 meter movement</t>
   </si>
@@ -97,12 +91,39 @@
   <si>
     <t>Pythagorean Distance</t>
   </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Backward</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>Step Size</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -117,6 +138,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -133,7 +167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -534,7 +568,61 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -542,6 +630,125 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -550,46 +757,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -598,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -611,9 +795,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -628,31 +809,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
@@ -660,10 +825,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -672,27 +898,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,9 +946,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -755,6 +990,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -763,26 +999,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -861,7 +1077,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6CB8-402B-B9F2-4417F1BC8B6A}"/>
             </c:ext>
@@ -938,7 +1154,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6CB8-402B-B9F2-4417F1BC8B6A}"/>
             </c:ext>
@@ -1015,7 +1231,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-6CB8-402B-B9F2-4417F1BC8B6A}"/>
             </c:ext>
@@ -1092,7 +1308,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-6CB8-402B-B9F2-4417F1BC8B6A}"/>
             </c:ext>
@@ -1169,7 +1385,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-6CB8-402B-B9F2-4417F1BC8B6A}"/>
             </c:ext>
@@ -1183,11 +1399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="721535935"/>
-        <c:axId val="722107103"/>
+        <c:axId val="171229760"/>
+        <c:axId val="171230336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="721535935"/>
+        <c:axId val="171229760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,6 +1435,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1227,26 +1444,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1282,15 +1479,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="722107103"/>
+        <c:crossAx val="171230336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="722107103"/>
+        <c:axId val="171230336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,6 +1519,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1330,26 +1528,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1385,10 +1563,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="721535935"/>
+        <c:crossAx val="171229760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1402,6 +1580,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1427,20 +1606,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1464,7 +1643,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1475,10 +1654,514 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Right</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AVG</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$AR$10:$AR$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>37.142600766787339</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>39.739059775308796</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>45.44733815255681</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>25.705176147360486</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>41.168726141069897</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$AR$10:$AR$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>37.142600766787339</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>39.739059775308796</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>45.44733815255681</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>25.705176147360486</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>41.168726141069897</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$10:$AJ$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AM$10:$AM$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>91.53328228913918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.262517520499784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.584018832432477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113.66615650837559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.748621420957761</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="311972928"/>
+        <c:axId val="311974080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="311972928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Step Size (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="311974080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="311974080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Position Error (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="311972928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Left</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AVG</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$AS$10:$AS$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>10.946970221336516</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20.012639877217772</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.889370690673987</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28.835252902115773</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13.529198243204812</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$AS$10:$AS$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>10.946970221336516</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20.012639877217772</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.889370690673987</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28.835252902115773</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>13.529198243204812</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$10:$AJ$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AN$10:$AN$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42.21055643294148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.674848123129443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.389610529178121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.52597855728667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.053722038548841</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="311608448"/>
+        <c:axId val="311609024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="311608448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Step Size (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="311609024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="311609024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Position Error (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="311608448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1498,9 +2181,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Forward</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1573,7 +2253,14 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>Forward</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7ABD-4497-9189-CDDFB75FC530}"/>
             </c:ext>
@@ -1582,9 +2269,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Backwards</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1657,7 +2341,14 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>Backwards</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7ABD-4497-9189-CDDFB75FC530}"/>
             </c:ext>
@@ -1666,9 +2357,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>Right</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1741,7 +2429,14 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>Right</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7ABD-4497-9189-CDDFB75FC530}"/>
             </c:ext>
@@ -1750,9 +2445,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:v>Left</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1825,7 +2517,14 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>Left</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7ABD-4497-9189-CDDFB75FC530}"/>
             </c:ext>
@@ -1841,11 +2540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583735119"/>
-        <c:axId val="729263599"/>
+        <c:axId val="199429632"/>
+        <c:axId val="171232640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="583735119"/>
+        <c:axId val="199429632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,10 +2584,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="729263599"/>
+        <c:crossAx val="171232640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1896,7 +2595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="729263599"/>
+        <c:axId val="171232640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,10 +2643,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583735119"/>
+        <c:crossAx val="199429632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1961,6 +2660,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1986,20 +2686,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2023,9 +2723,3418 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>The difference between reached and desired goal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Forwards</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$AD:$AD</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="8">
+                  <c:v>Step Size</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0,25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE:$AE</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>43.324358044868937</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>66.030296076876709</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>46.227697325304881</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>55.97320787662612</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>25.495097567963924</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>95.036834964133774</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>35.114099732158877</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>92.17917335276988</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>32.249030993194197</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>56.727418414731339</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>88.141930997681229</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>30.413812651491099</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>117.92370414806346</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>77.317527120310828</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00">
+                  <c:v>103.07764064044152</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00">
+                  <c:v>68.87670143089025</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>92.617492948146676</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00">
+                  <c:v>90.801982357215081</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00">
+                  <c:v>20.615528128088304</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00">
+                  <c:v>122.80065146407001</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>86.092973000123536</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00">
+                  <c:v>127.81627439414747</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00">
+                  <c:v>13.416407864998739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A5C-4A9B-A428-ADA407BDD223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>backwards</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$AD:$AD</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="8">
+                  <c:v>Step Size</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0,25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF:$AF</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>70.114192571832419</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>36.687872655688281</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>25.059928172283335</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>28.653097563788805</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>49.819674828324601</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>32.449961479175904</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>20.518284528683193</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>51.623637996561229</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>53.600373133029585</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>55.154328932550705</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>53.235326616824658</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>12.165525060596439</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>44.011362169330773</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>53.450912059571067</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>121.16517651536682</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00">
+                  <c:v>79.309520235593411</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00">
+                  <c:v>112.60550608207397</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>26.076809620810597</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00">
+                  <c:v>146.57762448614045</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00">
+                  <c:v>26.305892875931811</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00">
+                  <c:v>92.282175960474618</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>127.47156545677157</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00">
+                  <c:v>74.249579123386283</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00">
+                  <c:v>172.75416058665562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A5C-4A9B-A428-ADA407BDD223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Right</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$AD:$AD</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="8">
+                  <c:v>Step Size</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0,25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG:$AG</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>153.05227865013967</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>66.91038783328041</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>85.702975444263316</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>93.477269964414347</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>58.523499553598128</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>91.021975368588869</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>17.888543819998318</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>98.005101908012932</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>21.095023109728988</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>28.301943396169811</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>100.00499987500625</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>7.810249675906654</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>114.35471131527551</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>31.32091952673165</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>79.429213769242352</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>100.56838469419701</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00">
+                  <c:v>104.35037134576953</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00">
+                  <c:v>154.25303886795876</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>87.664131775772461</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00">
+                  <c:v>121.49485585818027</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00">
+                  <c:v>61.814237842102365</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00">
+                  <c:v>111.66467659918243</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00">
+                  <c:v>68.264192663504048</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3A5C-4A9B-A428-ADA407BDD223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Left</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$10:$AD$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AH$10:$AH$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>42.544094772365298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.12142238654117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.202941017470888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.041648597857254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.142675390472796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.366656256505337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.888543819998318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.720045146669349</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.55866572463264</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.840329667841555</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.202484376209235</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59.169248769948062</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.561028345356956</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.928498393145958</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.086792761230392</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.811388300841896</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.435804238089851</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.496913462633174</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.069123520951337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.8166632639171</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>94.175368329515976</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>64.845971347493901</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>84.219950130595535</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61.522353661088097</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>75.504966724050675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3A5C-4A9B-A428-ADA407BDD223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="171234944"/>
+        <c:axId val="171235520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="171234944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>step size (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="171235520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="171235520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Position Error (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="171234944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Forwards</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$AD:$AD</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="8">
+                  <c:v>Step Size</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0,25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE:$AE</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>43.324358044868937</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>66.030296076876709</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>46.227697325304881</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>55.97320787662612</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>25.495097567963924</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>95.036834964133774</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>35.114099732158877</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>92.17917335276988</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>32.249030993194197</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>56.727418414731339</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>88.141930997681229</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>30.413812651491099</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>117.92370414806346</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>77.317527120310828</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00">
+                  <c:v>103.07764064044152</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00">
+                  <c:v>68.87670143089025</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>92.617492948146676</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00">
+                  <c:v>90.801982357215081</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00">
+                  <c:v>20.615528128088304</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00">
+                  <c:v>122.80065146407001</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>86.092973000123536</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00">
+                  <c:v>127.81627439414747</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00">
+                  <c:v>13.416407864998739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A5C-4A9B-A428-ADA407BDD223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="200672384"/>
+        <c:axId val="200672960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="200672384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Step</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size (m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200672960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="200672960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Position Error (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200672384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>backwards</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$AD:$AD</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="8">
+                  <c:v>Step Size</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0,25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF:$AF</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>70.114192571832419</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>36.687872655688281</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>25.059928172283335</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>28.653097563788805</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>49.819674828324601</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>32.449961479175904</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>20.518284528683193</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>51.623637996561229</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>53.600373133029585</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>55.154328932550705</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>53.235326616824658</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>12.165525060596439</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>44.011362169330773</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>53.450912059571067</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>121.16517651536682</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00">
+                  <c:v>79.309520235593411</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00">
+                  <c:v>112.60550608207397</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>26.076809620810597</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00">
+                  <c:v>146.57762448614045</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00">
+                  <c:v>26.305892875931811</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00">
+                  <c:v>92.282175960474618</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>127.47156545677157</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00">
+                  <c:v>74.249579123386283</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00">
+                  <c:v>172.75416058665562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A5C-4A9B-A428-ADA407BDD223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="200674688"/>
+        <c:axId val="200675264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="200674688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Step Size (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200675264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="200675264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Position Error (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200674688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Right</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$AD:$AD</c:f>
+              <c:strCache>
+                <c:ptCount val="42"/>
+                <c:pt idx="8">
+                  <c:v>Step Size</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2,5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0,5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0,25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0,25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AG:$AG</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>153.05227865013967</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>66.91038783328041</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>85.702975444263316</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>93.477269964414347</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>58.523499553598128</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>91.021975368588869</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>17.888543819998318</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>98.005101908012932</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>21.095023109728988</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00">
+                  <c:v>28.301943396169811</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>100.00499987500625</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>7.810249675906654</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>114.35471131527551</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>31.32091952673165</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>79.429213769242352</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>100.56838469419701</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00">
+                  <c:v>104.35037134576953</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00">
+                  <c:v>154.25303886795876</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>87.664131775772461</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00">
+                  <c:v>121.49485585818027</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00">
+                  <c:v>61.814237842102365</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00">
+                  <c:v>111.66467659918243</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00">
+                  <c:v>68.264192663504048</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3A5C-4A9B-A428-ADA407BDD223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="200676992"/>
+        <c:axId val="200677568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="200676992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Step Size (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200677568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="200677568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Position Error (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200676992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Left</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$10:$AD$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AH$10:$AH$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>42.544094772365298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.12142238654117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.202941017470888</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.041648597857254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.142675390472796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.366656256505337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.888543819998318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.720045146669349</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.55866572463264</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.840329667841555</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.202484376209235</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59.169248769948062</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.561028345356956</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.928498393145958</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.086792761230392</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.811388300841896</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.435804238089851</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.496913462633174</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.069123520951337</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.8166632639171</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>94.175368329515976</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>64.845971347493901</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>84.219950130595535</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61.522353661088097</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>75.504966724050675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3A5C-4A9B-A428-ADA407BDD223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="211050496"/>
+        <c:axId val="211051072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="211050496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Step Size (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211051072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="211051072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Position Error (am)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211050496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Forwards</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AVG</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$AP$10:$AP$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>19.943420941291297</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>34.509724707104041</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>33.625073546705785</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>13.46885369542389</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>54.644529411001635</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$AP$10:$AP$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>19.943420941291297</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>34.509724707104041</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>33.625073546705785</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>13.46885369542389</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>54.644529411001635</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$10:$AJ$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AK$10:$AK$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>44.911111864735332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.014847322044126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.441373242393425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.538268899400876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.148366970285608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="311970048"/>
+        <c:axId val="311969472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="311970048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Step Size (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="311969472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="311969472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Position Error (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="311970048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Backwards</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AVG</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$AQ$10:$AQ$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>18.336147767809965</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.290364477599841</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18.108546857188312</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>46.444516617562471</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>55.208019895917701</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$AQ$10:$AQ$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>18.336147767809965</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.290364477599841</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>18.108546857188312</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>46.444516617562471</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>55.208019895917701</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$10:$AJ$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AL$10:$AL$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42.066953158383484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.638451427489983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.603490967774732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.146927387997053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.612674800643987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="211148800"/>
+        <c:axId val="211155712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="211148800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Step Size (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="211155712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="211155712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Position Error (cm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="211148800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2075,6 +6184,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3146,27 +7295,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>640</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>732367</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>128706</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>464976</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>14810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FAD711-5CD7-4092-9D77-2BCD56A91F99}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FAD711-5CD7-4092-9D77-2BCD56A91F99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3186,23 +7851,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>555171</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>157843</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158043</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>621191</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>68993</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF29F49-BF6C-4F66-BAC3-EC7DEFE27457}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF29F49-BF6C-4F66-BAC3-EC7DEFE27457}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3215,6 +7880,320 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>847412</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>115061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>371609</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>41007</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>554491</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>30615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85492</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>147061</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>333822</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>116446</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>333822</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>116446</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>24259</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>140258</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C08F0FD-216B-42F1-9221-056CEFE3B396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>550574</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>70861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3512,126 +8491,158 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AS43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView tabSelected="1" topLeftCell="N41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="10" width="9.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="27" t="s">
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="72" t="s">
         <v>21</v>
       </c>
+      <c r="P2" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="61" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="2:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
+    <row r="3" spans="2:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="85"/>
+      <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="62"/>
     </row>
-    <row r="4" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="49" t="s">
+    <row r="4" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="59"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="62"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>18</v>
       </c>
       <c r="D5" s="4">
@@ -3643,10 +8654,10 @@
       <c r="F5" s="4">
         <v>30</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="38">
         <v>12</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>22</v>
       </c>
       <c r="I5" s="4">
@@ -3658,27 +8669,33 @@
       <c r="K5" s="4">
         <v>-5</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="39">
         <v>5</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <f>SUM(C5:G5)/5</f>
         <v>10.4</v>
       </c>
-      <c r="N5" s="53">
+      <c r="N5" s="42">
         <f>SUM(H5:L5)/5</f>
         <v>7.8</v>
       </c>
-      <c r="O5" s="65">
+      <c r="O5" s="52">
         <f>SQRT(M5*M5+N5*N5)</f>
         <v>13</v>
       </c>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="62"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>-75</v>
       </c>
       <c r="D6" s="5">
@@ -3688,10 +8705,10 @@
         <v>-149</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>-80</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>-108</v>
       </c>
       <c r="I6" s="5">
@@ -3701,27 +8718,33 @@
         <v>-136</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>-110</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <f t="shared" ref="M6:M8" si="0">SUM(C6:G6)/5</f>
         <v>-96</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="42">
         <f t="shared" ref="N6:N8" si="1">SUM(H6:L6)/5</f>
         <v>-99</v>
       </c>
-      <c r="O6" s="66">
-        <f t="shared" ref="O6:O38" si="2">SQRT(M6*M6+N6*N6)</f>
+      <c r="O6" s="53">
+        <f t="shared" ref="O6:O33" si="2">SQRT(M6*M6+N6*N6)</f>
         <v>137.90213921473443</v>
       </c>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="62"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>86</v>
       </c>
       <c r="D7" s="5">
@@ -3733,10 +8756,10 @@
       <c r="F7" s="5">
         <v>58</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>29</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>-46</v>
       </c>
       <c r="I7" s="5">
@@ -3748,27 +8771,33 @@
       <c r="K7" s="5">
         <v>-55</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>-29</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <f t="shared" si="0"/>
         <v>53.4</v>
       </c>
-      <c r="N7" s="53">
+      <c r="N7" s="42">
         <f t="shared" si="1"/>
         <v>-41.4</v>
       </c>
-      <c r="O7" s="66">
+      <c r="O7" s="53">
         <f t="shared" si="2"/>
         <v>67.568631775402991</v>
       </c>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="62"/>
     </row>
-    <row r="8" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
+    <row r="8" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>-16</v>
       </c>
       <c r="D8" s="6">
@@ -3780,10 +8809,10 @@
       <c r="F8" s="6">
         <v>-41</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>8</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>-18</v>
       </c>
       <c r="I8" s="6">
@@ -3795,42 +8824,105 @@
       <c r="K8" s="6">
         <v>3</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="35">
         <v>-16</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="36">
         <f t="shared" si="0"/>
         <v>-14.6</v>
       </c>
-      <c r="N8" s="54">
+      <c r="N8" s="43">
         <f t="shared" si="1"/>
         <v>-16</v>
       </c>
-      <c r="O8" s="67">
+      <c r="O8" s="54">
         <f t="shared" si="2"/>
         <v>21.660101569475614</v>
       </c>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="62"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM8" s="88"/>
+      <c r="AN8" s="88"/>
+      <c r="AP8" s="88"/>
+      <c r="AQ8" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="88"/>
     </row>
-    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="51" t="s">
+    <row r="9" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="60"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="62"/>
+      <c r="AD9" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE9" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF9" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG9" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH9" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK9" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL9" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM9" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN9" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP9" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ9" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR9" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS9" s="88" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+    <row r="10" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="7">
@@ -3845,7 +8937,7 @@
       <c r="F10" s="2">
         <v>36</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="40">
         <v>-37</v>
       </c>
       <c r="H10" s="7">
@@ -3860,24 +8952,119 @@
       <c r="K10" s="2">
         <v>29</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="41">
         <v>42</v>
       </c>
       <c r="M10" s="7">
         <f>SUM(C10:G10)/5</f>
         <v>2.4</v>
       </c>
-      <c r="N10" s="55">
+      <c r="N10" s="44">
         <f>SUM(H10:L10)/5</f>
         <v>27.2</v>
       </c>
-      <c r="O10" s="62">
+      <c r="O10" s="55">
         <f t="shared" si="2"/>
         <v>27.305677065401618</v>
       </c>
+      <c r="P10" s="58">
+        <f>SQRT((C10)^2+(H10)^2)</f>
+        <v>43.324358044868937</v>
+      </c>
+      <c r="Q10" s="59">
+        <f t="shared" ref="Q10:T10" si="3">SQRT((D10)^2+(I10)^2)</f>
+        <v>13</v>
+      </c>
+      <c r="R10" s="59">
+        <f t="shared" si="3"/>
+        <v>66.030296076876709</v>
+      </c>
+      <c r="S10" s="59">
+        <f t="shared" si="3"/>
+        <v>46.227697325304881</v>
+      </c>
+      <c r="T10" s="59">
+        <f t="shared" si="3"/>
+        <v>55.97320787662612</v>
+      </c>
+      <c r="U10" s="60">
+        <f>AVERAGE(P10:T10)</f>
+        <v>44.911111864735332</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>43.324358044868937</v>
+      </c>
+      <c r="Y10">
+        <v>13</v>
+      </c>
+      <c r="Z10">
+        <v>66.030296076876709</v>
+      </c>
+      <c r="AA10">
+        <v>46.227697325304881</v>
+      </c>
+      <c r="AB10">
+        <v>55.97320787662612</v>
+      </c>
+      <c r="AC10">
+        <v>44.911111864735332</v>
+      </c>
+      <c r="AD10">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="51">
+        <v>43.324358044868937</v>
+      </c>
+      <c r="AF10" s="51">
+        <v>70.114192571832419</v>
+      </c>
+      <c r="AG10" s="51">
+        <v>153.05227865013967</v>
+      </c>
+      <c r="AH10" s="51">
+        <v>42.544094772365298</v>
+      </c>
+      <c r="AJ10">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="51">
+        <f>AVERAGE(AE10:AE14)</f>
+        <v>44.911111864735332</v>
+      </c>
+      <c r="AL10" s="51">
+        <f>AVERAGE(AF10:AF14)</f>
+        <v>42.066953158383484</v>
+      </c>
+      <c r="AM10" s="51">
+        <f>AVERAGE(AG10:AG14)</f>
+        <v>91.53328228913918</v>
+      </c>
+      <c r="AN10" s="51">
+        <f>AVERAGE(AH10:AH14)</f>
+        <v>42.21055643294148</v>
+      </c>
+      <c r="AP10" s="51">
+        <f>STDEV(AE10:AE14)</f>
+        <v>19.943420941291297</v>
+      </c>
+      <c r="AQ10" s="51">
+        <f t="shared" ref="AQ10:AS10" si="4">STDEV(AF10:AF14)</f>
+        <v>18.336147767809965</v>
+      </c>
+      <c r="AR10" s="51">
+        <f t="shared" si="4"/>
+        <v>37.142600766787339</v>
+      </c>
+      <c r="AS10" s="51">
+        <f>STDEV(AH10:AH14)</f>
+        <v>10.946970221336516</v>
+      </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
+    <row r="11" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="8">
@@ -3907,24 +9094,119 @@
       <c r="K11" s="1">
         <v>-25</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="16">
         <v>-49</v>
       </c>
       <c r="M11" s="7">
-        <f t="shared" ref="M11:M13" si="3">SUM(C11:G11)/5</f>
+        <f t="shared" ref="M11:M13" si="5">SUM(C11:G11)/5</f>
         <v>1.6</v>
       </c>
-      <c r="N11" s="55">
-        <f t="shared" ref="N11:N13" si="4">SUM(H11:L11)/5</f>
+      <c r="N11" s="44">
+        <f t="shared" ref="N11:N13" si="6">SUM(H11:L11)/5</f>
         <v>-40.200000000000003</v>
       </c>
-      <c r="O11" s="63">
+      <c r="O11" s="56">
         <f t="shared" si="2"/>
         <v>40.231828196093701</v>
       </c>
+      <c r="P11" s="58">
+        <f t="shared" ref="P11:P33" si="7">SQRT((C11)^2+(H11)^2)</f>
+        <v>70.114192571832419</v>
+      </c>
+      <c r="Q11" s="59">
+        <f t="shared" ref="Q11:Q33" si="8">SQRT((D11)^2+(I11)^2)</f>
+        <v>36.687872655688281</v>
+      </c>
+      <c r="R11" s="59">
+        <f t="shared" ref="R11:R33" si="9">SQRT((E11)^2+(J11)^2)</f>
+        <v>25.059928172283335</v>
+      </c>
+      <c r="S11" s="59">
+        <f t="shared" ref="S11:S33" si="10">SQRT((F11)^2+(K11)^2)</f>
+        <v>28.653097563788805</v>
+      </c>
+      <c r="T11" s="59">
+        <f t="shared" ref="T11:T33" si="11">SQRT((G11)^2+(L11)^2)</f>
+        <v>49.819674828324601</v>
+      </c>
+      <c r="U11" s="60">
+        <f t="shared" ref="U11:U33" si="12">AVERAGE(P11:T11)</f>
+        <v>42.066953158383484</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <v>70.114192571832419</v>
+      </c>
+      <c r="Y11">
+        <v>36.687872655688281</v>
+      </c>
+      <c r="Z11">
+        <v>25.059928172283335</v>
+      </c>
+      <c r="AA11">
+        <v>28.653097563788805</v>
+      </c>
+      <c r="AB11">
+        <v>49.819674828324601</v>
+      </c>
+      <c r="AC11">
+        <v>42.066953158383484</v>
+      </c>
+      <c r="AD11">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="51">
+        <v>13</v>
+      </c>
+      <c r="AF11" s="51">
+        <v>36.687872655688281</v>
+      </c>
+      <c r="AG11" s="51">
+        <v>66.91038783328041</v>
+      </c>
+      <c r="AH11" s="51">
+        <v>37.12142238654117</v>
+      </c>
+      <c r="AJ11" s="51">
+        <v>2.5</v>
+      </c>
+      <c r="AK11" s="51">
+        <f>AVERAGE(AE17:AE21)</f>
+        <v>56.014847322044126</v>
+      </c>
+      <c r="AL11" s="51">
+        <f>AVERAGE(AF17:AF21)</f>
+        <v>35.638451427489983</v>
+      </c>
+      <c r="AM11" s="51">
+        <f>AVERAGE(AG17:AG21)</f>
+        <v>51.262517520499784</v>
+      </c>
+      <c r="AN11" s="51">
+        <f>AVERAGE(AH17:AH21)</f>
+        <v>33.674848123129443</v>
+      </c>
+      <c r="AP11" s="51">
+        <f>STDEV(AE17:AE21)</f>
+        <v>34.509724707104041</v>
+      </c>
+      <c r="AQ11" s="51">
+        <f t="shared" ref="AQ11:AS11" si="13">STDEV(AF17:AF21)</f>
+        <v>16.290364477599841</v>
+      </c>
+      <c r="AR11" s="51">
+        <f t="shared" si="13"/>
+        <v>39.739059775308796</v>
+      </c>
+      <c r="AS11" s="51">
+        <f t="shared" si="13"/>
+        <v>20.012639877217772</v>
+      </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
+    <row r="12" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="8">
@@ -3954,24 +9236,119 @@
       <c r="K12" s="1">
         <v>53</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="16">
         <v>55</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-18.2</v>
       </c>
-      <c r="N12" s="55">
-        <f t="shared" si="4"/>
+      <c r="N12" s="44">
+        <f t="shared" si="6"/>
         <v>70.599999999999994</v>
       </c>
-      <c r="O12" s="63">
+      <c r="O12" s="56">
         <f t="shared" si="2"/>
         <v>72.908161408720204</v>
       </c>
+      <c r="P12" s="58">
+        <f t="shared" si="7"/>
+        <v>153.05227865013967</v>
+      </c>
+      <c r="Q12" s="59">
+        <f t="shared" si="8"/>
+        <v>66.91038783328041</v>
+      </c>
+      <c r="R12" s="59">
+        <f t="shared" si="9"/>
+        <v>85.702975444263316</v>
+      </c>
+      <c r="S12" s="59">
+        <f t="shared" si="10"/>
+        <v>93.477269964414347</v>
+      </c>
+      <c r="T12" s="59">
+        <f t="shared" si="11"/>
+        <v>58.523499553598128</v>
+      </c>
+      <c r="U12" s="60">
+        <f t="shared" si="12"/>
+        <v>91.53328228913918</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="X12">
+        <v>153.05227865013967</v>
+      </c>
+      <c r="Y12">
+        <v>66.91038783328041</v>
+      </c>
+      <c r="Z12">
+        <v>85.702975444263316</v>
+      </c>
+      <c r="AA12">
+        <v>93.477269964414347</v>
+      </c>
+      <c r="AB12">
+        <v>58.523499553598128</v>
+      </c>
+      <c r="AC12">
+        <v>91.53328228913918</v>
+      </c>
+      <c r="AD12">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="51">
+        <v>66.030296076876709</v>
+      </c>
+      <c r="AF12" s="51">
+        <v>25.059928172283335</v>
+      </c>
+      <c r="AG12" s="51">
+        <v>85.702975444263316</v>
+      </c>
+      <c r="AH12" s="51">
+        <v>27.202941017470888</v>
+      </c>
+      <c r="AJ12" s="51">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="51">
+        <f>AVERAGE(AE24:AE28)</f>
+        <v>76.441373242393425</v>
+      </c>
+      <c r="AL12" s="51">
+        <f t="shared" ref="AL12:AN12" si="14">AVERAGE(AF24:AF28)</f>
+        <v>43.603490967774732</v>
+      </c>
+      <c r="AM12" s="51">
+        <f t="shared" si="14"/>
+        <v>66.584018832432477</v>
+      </c>
+      <c r="AN12" s="51">
+        <f>AVERAGE(AH24:AH28)</f>
+        <v>34.389610529178121</v>
+      </c>
+      <c r="AP12" s="51">
+        <f>STDEV(AE24:AE28)</f>
+        <v>33.625073546705785</v>
+      </c>
+      <c r="AQ12" s="51">
+        <f t="shared" ref="AQ12:AS12" si="15">STDEV(AF24:AF28)</f>
+        <v>18.108546857188312</v>
+      </c>
+      <c r="AR12" s="51">
+        <f t="shared" si="15"/>
+        <v>45.44733815255681</v>
+      </c>
+      <c r="AS12" s="51">
+        <f t="shared" si="15"/>
+        <v>14.889370690673987</v>
+      </c>
     </row>
-    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="24" t="s">
+    <row r="13" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="9">
@@ -4001,42 +9378,193 @@
       <c r="K13" s="3">
         <v>48</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="17">
         <v>56</v>
       </c>
-      <c r="M13" s="44">
-        <f t="shared" si="3"/>
+      <c r="M13" s="37">
+        <f t="shared" si="5"/>
         <v>-9.6</v>
       </c>
-      <c r="N13" s="56">
-        <f t="shared" si="4"/>
+      <c r="N13" s="45">
+        <f t="shared" si="6"/>
         <v>40.4</v>
       </c>
-      <c r="O13" s="64">
+      <c r="O13" s="57">
         <f t="shared" si="2"/>
         <v>41.524932269661804</v>
       </c>
+      <c r="P13" s="58">
+        <f t="shared" si="7"/>
+        <v>42.544094772365298</v>
+      </c>
+      <c r="Q13" s="59">
+        <f t="shared" si="8"/>
+        <v>37.12142238654117</v>
+      </c>
+      <c r="R13" s="59">
+        <f t="shared" si="9"/>
+        <v>27.202941017470888</v>
+      </c>
+      <c r="S13" s="59">
+        <f t="shared" si="10"/>
+        <v>48.041648597857254</v>
+      </c>
+      <c r="T13" s="59">
+        <f t="shared" si="11"/>
+        <v>56.142675390472796</v>
+      </c>
+      <c r="U13" s="60">
+        <f t="shared" si="12"/>
+        <v>42.21055643294148</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <v>42.544094772365298</v>
+      </c>
+      <c r="Y13">
+        <v>37.12142238654117</v>
+      </c>
+      <c r="Z13">
+        <v>27.202941017470888</v>
+      </c>
+      <c r="AA13">
+        <v>48.041648597857254</v>
+      </c>
+      <c r="AB13">
+        <v>56.142675390472796</v>
+      </c>
+      <c r="AC13">
+        <v>42.21055643294148</v>
+      </c>
+      <c r="AD13">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="51">
+        <v>46.227697325304881</v>
+      </c>
+      <c r="AF13" s="51">
+        <v>28.653097563788805</v>
+      </c>
+      <c r="AG13" s="51">
+        <v>93.477269964414347</v>
+      </c>
+      <c r="AH13" s="51">
+        <v>48.041648597857254</v>
+      </c>
+      <c r="AJ13" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="AK13" s="51">
+        <f>AVERAGE(AE31:AE35)</f>
+        <v>86.538268899400876</v>
+      </c>
+      <c r="AL13" s="51">
+        <f t="shared" ref="AL13:AN13" si="16">AVERAGE(AF31:AF35)</f>
+        <v>97.146927387997053</v>
+      </c>
+      <c r="AM13" s="51">
+        <f t="shared" si="16"/>
+        <v>113.66615650837559</v>
+      </c>
+      <c r="AN13" s="51">
+        <f t="shared" si="16"/>
+        <v>49.52597855728667</v>
+      </c>
+      <c r="AP13" s="51">
+        <f>STDEV(AE31:AE35)</f>
+        <v>13.46885369542389</v>
+      </c>
+      <c r="AQ13" s="51">
+        <f t="shared" ref="AQ13:AS13" si="17">STDEV(AF31:AF35)</f>
+        <v>46.444516617562471</v>
+      </c>
+      <c r="AR13" s="51">
+        <f t="shared" si="17"/>
+        <v>25.705176147360486</v>
+      </c>
+      <c r="AS13" s="51">
+        <f t="shared" si="17"/>
+        <v>28.835252902115773</v>
+      </c>
     </row>
-    <row r="14" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="51" t="s">
+    <row r="14" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="60"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="AD14">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="51">
+        <v>55.97320787662612</v>
+      </c>
+      <c r="AF14" s="51">
+        <v>49.819674828324601</v>
+      </c>
+      <c r="AG14" s="51">
+        <v>58.523499553598128</v>
+      </c>
+      <c r="AH14" s="51">
+        <v>56.142675390472796</v>
+      </c>
+      <c r="AJ14" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="AK14" s="51">
+        <f>AVERAGE(AE38:AE42)</f>
+        <v>74.148366970285608</v>
+      </c>
+      <c r="AL14" s="51">
+        <f t="shared" ref="AL14:AN14" si="18">AVERAGE(AF38:AF42)</f>
+        <v>98.612674800643987</v>
+      </c>
+      <c r="AM14" s="51">
+        <f t="shared" si="18"/>
+        <v>55.748621420957761</v>
+      </c>
+      <c r="AN14" s="51">
+        <f t="shared" si="18"/>
+        <v>76.053722038548841</v>
+      </c>
+      <c r="AP14" s="51">
+        <f>STDEV(AE38:AE42)</f>
+        <v>54.644529411001635</v>
+      </c>
+      <c r="AQ14" s="51">
+        <f t="shared" ref="AQ14:AS14" si="19">STDEV(AF38:AF42)</f>
+        <v>55.208019895917701</v>
+      </c>
+      <c r="AR14" s="51">
+        <f t="shared" si="19"/>
+        <v>41.168726141069897</v>
+      </c>
+      <c r="AS14" s="51">
+        <f t="shared" si="19"/>
+        <v>13.529198243204812</v>
+      </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="7">
@@ -4051,7 +9579,7 @@
       <c r="F15" s="2">
         <v>-89</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="40">
         <v>4</v>
       </c>
       <c r="H15" s="7">
@@ -4066,24 +9594,73 @@
       <c r="K15" s="2">
         <v>24</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="41">
         <v>32</v>
       </c>
       <c r="M15" s="7">
         <f>SUM(C15:G15)/5</f>
         <v>-24.2</v>
       </c>
-      <c r="N15" s="55">
+      <c r="N15" s="44">
         <f>SUM(H15:L15)/5</f>
         <v>17.399999999999999</v>
       </c>
-      <c r="O15" s="62">
+      <c r="O15" s="55">
         <f t="shared" si="2"/>
         <v>29.806039656418626</v>
       </c>
+      <c r="P15" s="58">
+        <f t="shared" si="7"/>
+        <v>25.495097567963924</v>
+      </c>
+      <c r="Q15" s="59">
+        <f t="shared" si="8"/>
+        <v>95.036834964133774</v>
+      </c>
+      <c r="R15" s="59">
+        <f t="shared" si="9"/>
+        <v>35.114099732158877</v>
+      </c>
+      <c r="S15" s="59">
+        <f t="shared" si="10"/>
+        <v>92.17917335276988</v>
+      </c>
+      <c r="T15" s="59">
+        <f t="shared" si="11"/>
+        <v>32.249030993194197</v>
+      </c>
+      <c r="U15" s="60">
+        <f t="shared" si="12"/>
+        <v>56.014847322044126</v>
+      </c>
+      <c r="V15">
+        <v>2.5</v>
+      </c>
+      <c r="X15">
+        <v>25.495097567963924</v>
+      </c>
+      <c r="Y15">
+        <v>95.036834964133774</v>
+      </c>
+      <c r="Z15">
+        <v>35.114099732158877</v>
+      </c>
+      <c r="AA15">
+        <v>92.17917335276988</v>
+      </c>
+      <c r="AB15">
+        <v>32.249030993194197</v>
+      </c>
+      <c r="AC15">
+        <v>56.014847322044126</v>
+      </c>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="8">
@@ -4113,24 +9690,73 @@
       <c r="K16" s="1">
         <v>-20</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="16">
         <v>-32</v>
       </c>
       <c r="M16" s="7">
-        <f t="shared" ref="M16:M18" si="5">SUM(C16:G16)/5</f>
+        <f t="shared" ref="M16:M18" si="20">SUM(C16:G16)/5</f>
         <v>-16.600000000000001</v>
       </c>
-      <c r="N16" s="55">
-        <f t="shared" ref="N16:N18" si="6">SUM(H16:L16)/5</f>
+      <c r="N16" s="44">
+        <f t="shared" ref="N16:N18" si="21">SUM(H16:L16)/5</f>
         <v>-26.2</v>
       </c>
-      <c r="O16" s="63">
+      <c r="O16" s="56">
         <f t="shared" si="2"/>
         <v>31.016124838541646</v>
       </c>
+      <c r="P16" s="58">
+        <f t="shared" si="7"/>
+        <v>32.449961479175904</v>
+      </c>
+      <c r="Q16" s="59">
+        <f t="shared" si="8"/>
+        <v>20.518284528683193</v>
+      </c>
+      <c r="R16" s="59">
+        <f t="shared" si="9"/>
+        <v>51.623637996561229</v>
+      </c>
+      <c r="S16" s="59">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="T16" s="59">
+        <f t="shared" si="11"/>
+        <v>53.600373133029585</v>
+      </c>
+      <c r="U16" s="60">
+        <f t="shared" si="12"/>
+        <v>35.638451427489983</v>
+      </c>
+      <c r="V16">
+        <v>2.5</v>
+      </c>
+      <c r="X16">
+        <v>32.449961479175904</v>
+      </c>
+      <c r="Y16">
+        <v>20.518284528683193</v>
+      </c>
+      <c r="Z16">
+        <v>51.623637996561229</v>
+      </c>
+      <c r="AA16">
+        <v>20</v>
+      </c>
+      <c r="AB16">
+        <v>53.600373133029585</v>
+      </c>
+      <c r="AC16">
+        <v>35.638451427489983</v>
+      </c>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="8">
@@ -4160,24 +9786,84 @@
       <c r="K17" s="1">
         <v>-2</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="16">
         <v>-15</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
-      <c r="N17" s="55">
-        <f t="shared" si="6"/>
+      <c r="N17" s="44">
+        <f t="shared" si="21"/>
         <v>-4.8</v>
       </c>
-      <c r="O17" s="63">
+      <c r="O17" s="49">
         <f t="shared" si="2"/>
         <v>50.229871590518727</v>
       </c>
+      <c r="P17" s="58">
+        <f t="shared" si="7"/>
+        <v>91.021975368588869</v>
+      </c>
+      <c r="Q17" s="59">
+        <f t="shared" si="8"/>
+        <v>17.888543819998318</v>
+      </c>
+      <c r="R17" s="59">
+        <f t="shared" si="9"/>
+        <v>98.005101908012932</v>
+      </c>
+      <c r="S17" s="59">
+        <f t="shared" si="10"/>
+        <v>21.095023109728988</v>
+      </c>
+      <c r="T17" s="59">
+        <f t="shared" si="11"/>
+        <v>28.301943396169811</v>
+      </c>
+      <c r="U17" s="60">
+        <f t="shared" si="12"/>
+        <v>51.262517520499784</v>
+      </c>
+      <c r="V17">
+        <v>2.5</v>
+      </c>
+      <c r="X17">
+        <v>91.021975368588869</v>
+      </c>
+      <c r="Y17">
+        <v>17.888543819998318</v>
+      </c>
+      <c r="Z17">
+        <v>98.005101908012932</v>
+      </c>
+      <c r="AA17">
+        <v>21.095023109728988</v>
+      </c>
+      <c r="AB17">
+        <v>28.301943396169811</v>
+      </c>
+      <c r="AC17">
+        <v>51.262517520499784</v>
+      </c>
+      <c r="AD17">
+        <v>2.5</v>
+      </c>
+      <c r="AE17" s="51">
+        <v>25.495097567963924</v>
+      </c>
+      <c r="AF17" s="51">
+        <v>32.449961479175904</v>
+      </c>
+      <c r="AG17" s="51">
+        <v>91.021975368588869</v>
+      </c>
+      <c r="AH17" s="51">
+        <v>53.366656256505337</v>
+      </c>
     </row>
-    <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="24" t="s">
+    <row r="18" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="9">
@@ -4207,42 +9893,123 @@
       <c r="K18" s="3">
         <v>8</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="17">
         <v>6</v>
       </c>
-      <c r="M18" s="44">
-        <f t="shared" si="5"/>
+      <c r="M18" s="37">
+        <f t="shared" si="20"/>
         <v>3.4</v>
       </c>
-      <c r="N18" s="56">
-        <f t="shared" si="6"/>
+      <c r="N18" s="45">
+        <f t="shared" si="21"/>
         <v>7.8</v>
       </c>
-      <c r="O18" s="64">
+      <c r="O18" s="50">
         <f t="shared" si="2"/>
         <v>8.5088189544730586</v>
       </c>
+      <c r="P18" s="58">
+        <f t="shared" si="7"/>
+        <v>53.366656256505337</v>
+      </c>
+      <c r="Q18" s="59">
+        <f t="shared" si="8"/>
+        <v>17.888543819998318</v>
+      </c>
+      <c r="R18" s="59">
+        <f t="shared" si="9"/>
+        <v>17.720045146669349</v>
+      </c>
+      <c r="S18" s="59">
+        <f t="shared" si="10"/>
+        <v>57.55866572463264</v>
+      </c>
+      <c r="T18" s="59">
+        <f t="shared" si="11"/>
+        <v>21.840329667841555</v>
+      </c>
+      <c r="U18" s="60">
+        <f t="shared" si="12"/>
+        <v>33.674848123129443</v>
+      </c>
+      <c r="V18">
+        <v>2.5</v>
+      </c>
+      <c r="X18">
+        <v>53.366656256505337</v>
+      </c>
+      <c r="Y18">
+        <v>17.888543819998318</v>
+      </c>
+      <c r="Z18">
+        <v>17.720045146669349</v>
+      </c>
+      <c r="AA18">
+        <v>57.55866572463264</v>
+      </c>
+      <c r="AB18">
+        <v>21.840329667841555</v>
+      </c>
+      <c r="AC18">
+        <v>33.674848123129443</v>
+      </c>
+      <c r="AD18">
+        <v>2.5</v>
+      </c>
+      <c r="AE18" s="51">
+        <v>95.036834964133774</v>
+      </c>
+      <c r="AF18" s="51">
+        <v>20.518284528683193</v>
+      </c>
+      <c r="AG18" s="51">
+        <v>17.888543819998318</v>
+      </c>
+      <c r="AH18" s="51">
+        <v>17.888543819998318</v>
+      </c>
     </row>
-    <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="51" t="s">
+    <row r="19" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="60"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="AD19">
+        <v>2.5</v>
+      </c>
+      <c r="AE19" s="51">
+        <v>35.114099732158877</v>
+      </c>
+      <c r="AF19" s="51">
+        <v>51.623637996561229</v>
+      </c>
+      <c r="AG19" s="51">
+        <v>98.005101908012932</v>
+      </c>
+      <c r="AH19" s="51">
+        <v>17.720045146669349</v>
+      </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="7">
@@ -4257,7 +10024,7 @@
       <c r="F20" s="2">
         <v>-5</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="40">
         <v>-109</v>
       </c>
       <c r="H20" s="7">
@@ -4272,24 +10039,85 @@
       <c r="K20" s="2">
         <v>30</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="41">
         <v>45</v>
       </c>
       <c r="M20" s="7">
         <f>SUM(C20:G20)/5</f>
         <v>-63.4</v>
       </c>
-      <c r="N20" s="55">
+      <c r="N20" s="44">
         <f>SUM(H20:L20)/5</f>
         <v>37.6</v>
       </c>
-      <c r="O20" s="62">
+      <c r="O20" s="48">
         <f t="shared" si="2"/>
         <v>73.711057515138123</v>
       </c>
+      <c r="P20" s="58">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="Q20" s="59">
+        <f t="shared" si="8"/>
+        <v>56.727418414731339</v>
+      </c>
+      <c r="R20" s="59">
+        <f t="shared" si="9"/>
+        <v>88.141930997681229</v>
+      </c>
+      <c r="S20" s="59">
+        <f t="shared" si="10"/>
+        <v>30.413812651491099</v>
+      </c>
+      <c r="T20" s="59">
+        <f t="shared" si="11"/>
+        <v>117.92370414806346</v>
+      </c>
+      <c r="U20" s="60">
+        <f t="shared" si="12"/>
+        <v>76.441373242393425</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>89</v>
+      </c>
+      <c r="Y20">
+        <v>56.727418414731339</v>
+      </c>
+      <c r="Z20">
+        <v>88.141930997681229</v>
+      </c>
+      <c r="AA20">
+        <v>30.413812651491099</v>
+      </c>
+      <c r="AB20">
+        <v>117.92370414806346</v>
+      </c>
+      <c r="AC20">
+        <v>76.441373242393425</v>
+      </c>
+      <c r="AD20">
+        <v>2.5</v>
+      </c>
+      <c r="AE20" s="51">
+        <v>92.17917335276988</v>
+      </c>
+      <c r="AF20" s="51">
+        <v>20</v>
+      </c>
+      <c r="AG20" s="51">
+        <v>21.095023109728988</v>
+      </c>
+      <c r="AH20" s="51">
+        <v>57.55866572463264</v>
+      </c>
+      <c r="AJ20" s="51"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="23" t="s">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="8">
@@ -4319,24 +10147,84 @@
       <c r="K21" s="1">
         <v>-16</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="16">
         <v>16</v>
       </c>
       <c r="M21" s="7">
-        <f t="shared" ref="M21:M23" si="7">SUM(C21:G21)/5</f>
+        <f t="shared" ref="M21:M23" si="22">SUM(C21:G21)/5</f>
         <v>4</v>
       </c>
-      <c r="N21" s="55">
-        <f t="shared" ref="N21:N23" si="8">SUM(H21:L21)/5</f>
+      <c r="N21" s="44">
+        <f t="shared" ref="N21:N23" si="23">SUM(H21:L21)/5</f>
         <v>4.8</v>
       </c>
-      <c r="O21" s="63">
+      <c r="O21" s="49">
         <f t="shared" si="2"/>
         <v>6.2481997407253234</v>
       </c>
+      <c r="P21" s="58">
+        <f t="shared" si="7"/>
+        <v>55.154328932550705</v>
+      </c>
+      <c r="Q21" s="59">
+        <f t="shared" si="8"/>
+        <v>53.235326616824658</v>
+      </c>
+      <c r="R21" s="59">
+        <f t="shared" si="9"/>
+        <v>12.165525060596439</v>
+      </c>
+      <c r="S21" s="59">
+        <f t="shared" si="10"/>
+        <v>44.011362169330773</v>
+      </c>
+      <c r="T21" s="59">
+        <f t="shared" si="11"/>
+        <v>53.450912059571067</v>
+      </c>
+      <c r="U21" s="60">
+        <f t="shared" si="12"/>
+        <v>43.603490967774732</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>55.154328932550705</v>
+      </c>
+      <c r="Y21">
+        <v>53.235326616824658</v>
+      </c>
+      <c r="Z21">
+        <v>12.165525060596439</v>
+      </c>
+      <c r="AA21">
+        <v>44.011362169330773</v>
+      </c>
+      <c r="AB21">
+        <v>53.450912059571067</v>
+      </c>
+      <c r="AC21">
+        <v>43.603490967774732</v>
+      </c>
+      <c r="AD21">
+        <v>2.5</v>
+      </c>
+      <c r="AE21" s="51">
+        <v>32.249030993194197</v>
+      </c>
+      <c r="AF21" s="51">
+        <v>53.600373133029585</v>
+      </c>
+      <c r="AG21" s="51">
+        <v>28.301943396169811</v>
+      </c>
+      <c r="AH21" s="51">
+        <v>21.840329667841555</v>
+      </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="8">
@@ -4366,24 +10254,73 @@
       <c r="K22" s="1">
         <v>-9</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="16">
         <v>15</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="22"/>
         <v>22.4</v>
       </c>
-      <c r="N22" s="55">
-        <f t="shared" si="8"/>
+      <c r="N22" s="44">
+        <f t="shared" si="23"/>
         <v>4.2</v>
       </c>
-      <c r="O22" s="63">
+      <c r="O22" s="49">
         <f t="shared" si="2"/>
         <v>22.790348834539589</v>
       </c>
+      <c r="P22" s="58">
+        <f t="shared" si="7"/>
+        <v>100.00499987500625</v>
+      </c>
+      <c r="Q22" s="59">
+        <f t="shared" si="8"/>
+        <v>7.810249675906654</v>
+      </c>
+      <c r="R22" s="59">
+        <f t="shared" si="9"/>
+        <v>114.35471131527551</v>
+      </c>
+      <c r="S22" s="59">
+        <f t="shared" si="10"/>
+        <v>31.32091952673165</v>
+      </c>
+      <c r="T22" s="59">
+        <f t="shared" si="11"/>
+        <v>79.429213769242352</v>
+      </c>
+      <c r="U22" s="60">
+        <f t="shared" si="12"/>
+        <v>66.584018832432477</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>100.00499987500625</v>
+      </c>
+      <c r="Y22">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="Z22">
+        <v>114.35471131527551</v>
+      </c>
+      <c r="AA22">
+        <v>31.32091952673165</v>
+      </c>
+      <c r="AB22">
+        <v>79.429213769242352</v>
+      </c>
+      <c r="AC22">
+        <v>66.584018832432477</v>
+      </c>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
     </row>
-    <row r="23" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="24" t="s">
+    <row r="23" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="9">
@@ -4413,42 +10350,112 @@
       <c r="K23" s="3">
         <v>14</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="17">
         <v>7</v>
       </c>
-      <c r="M23" s="44">
-        <f t="shared" si="7"/>
+      <c r="M23" s="37">
+        <f t="shared" si="22"/>
         <v>-10.8</v>
       </c>
-      <c r="N23" s="56">
-        <f t="shared" si="8"/>
+      <c r="N23" s="45">
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
-      <c r="O23" s="64">
+      <c r="O23" s="50">
         <f t="shared" si="2"/>
         <v>17.681628884240276</v>
       </c>
+      <c r="P23" s="58">
+        <f t="shared" si="7"/>
+        <v>32.202484376209235</v>
+      </c>
+      <c r="Q23" s="59">
+        <f t="shared" si="8"/>
+        <v>59.169248769948062</v>
+      </c>
+      <c r="R23" s="59">
+        <f t="shared" si="9"/>
+        <v>22.561028345356956</v>
+      </c>
+      <c r="S23" s="59">
+        <f t="shared" si="10"/>
+        <v>34.928498393145958</v>
+      </c>
+      <c r="T23" s="59">
+        <f t="shared" si="11"/>
+        <v>23.086792761230392</v>
+      </c>
+      <c r="U23" s="60">
+        <f t="shared" si="12"/>
+        <v>34.389610529178121</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>32.202484376209235</v>
+      </c>
+      <c r="Y23">
+        <v>59.169248769948062</v>
+      </c>
+      <c r="Z23">
+        <v>22.561028345356956</v>
+      </c>
+      <c r="AA23">
+        <v>34.928498393145958</v>
+      </c>
+      <c r="AB23">
+        <v>23.086792761230392</v>
+      </c>
+      <c r="AC23">
+        <v>34.389610529178121</v>
+      </c>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="51"/>
     </row>
-    <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="51" t="s">
+    <row r="24" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="60"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="51">
+        <v>89</v>
+      </c>
+      <c r="AF24" s="51">
+        <v>55.154328932550705</v>
+      </c>
+      <c r="AG24" s="51">
+        <v>100.00499987500625</v>
+      </c>
+      <c r="AH24" s="51">
+        <v>32.202484376209235</v>
+      </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="7">
@@ -4463,7 +10470,7 @@
       <c r="F25" s="2">
         <v>-57</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="40">
         <v>54</v>
       </c>
       <c r="H25" s="7">
@@ -4478,24 +10485,84 @@
       <c r="K25" s="2">
         <v>73</v>
       </c>
-      <c r="L25" s="48">
+      <c r="L25" s="41">
         <v>73</v>
       </c>
       <c r="M25" s="7">
         <f>SUM(C25:G25)/5</f>
         <v>-13.8</v>
       </c>
-      <c r="N25" s="55">
+      <c r="N25" s="44">
         <f>SUM(H25:L25)/5</f>
         <v>67.400000000000006</v>
       </c>
-      <c r="O25" s="62">
+      <c r="O25" s="55">
         <f t="shared" si="2"/>
         <v>68.798255791844028</v>
       </c>
+      <c r="P25" s="58">
+        <f t="shared" si="7"/>
+        <v>77.317527120310828</v>
+      </c>
+      <c r="Q25" s="59">
+        <f t="shared" si="8"/>
+        <v>103.07764064044152</v>
+      </c>
+      <c r="R25" s="59">
+        <f t="shared" si="9"/>
+        <v>68.87670143089025</v>
+      </c>
+      <c r="S25" s="59">
+        <f t="shared" si="10"/>
+        <v>92.617492948146676</v>
+      </c>
+      <c r="T25" s="59">
+        <f t="shared" si="11"/>
+        <v>90.801982357215081</v>
+      </c>
+      <c r="U25" s="60">
+        <f t="shared" si="12"/>
+        <v>86.538268899400876</v>
+      </c>
+      <c r="V25">
+        <v>0.5</v>
+      </c>
+      <c r="X25">
+        <v>77.317527120310828</v>
+      </c>
+      <c r="Y25">
+        <v>103.07764064044152</v>
+      </c>
+      <c r="Z25">
+        <v>68.87670143089025</v>
+      </c>
+      <c r="AA25">
+        <v>92.617492948146676</v>
+      </c>
+      <c r="AB25">
+        <v>90.801982357215081</v>
+      </c>
+      <c r="AC25">
+        <v>86.538268899400876</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="51">
+        <v>56.727418414731339</v>
+      </c>
+      <c r="AF25" s="51">
+        <v>53.235326616824658</v>
+      </c>
+      <c r="AG25" s="51">
+        <v>7.810249675906654</v>
+      </c>
+      <c r="AH25" s="51">
+        <v>59.169248769948062</v>
+      </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="23" t="s">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="8">
@@ -4525,24 +10592,85 @@
       <c r="K26" s="1">
         <v>22</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="16">
         <v>13</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" ref="M26:M28" si="9">SUM(C26:G26)/5</f>
+        <f t="shared" ref="M26:M28" si="24">SUM(C26:G26)/5</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="N26" s="55">
-        <f t="shared" ref="N26:N28" si="10">SUM(H26:L26)/5</f>
+      <c r="N26" s="44">
+        <f t="shared" ref="N26:N28" si="25">SUM(H26:L26)/5</f>
         <v>27.8</v>
       </c>
-      <c r="O26" s="63">
+      <c r="O26" s="56">
         <f t="shared" si="2"/>
         <v>27.886914494077686</v>
       </c>
+      <c r="P26" s="58">
+        <f t="shared" si="7"/>
+        <v>121.16517651536682</v>
+      </c>
+      <c r="Q26" s="59">
+        <f t="shared" si="8"/>
+        <v>79.309520235593411</v>
+      </c>
+      <c r="R26" s="59">
+        <f t="shared" si="9"/>
+        <v>112.60550608207397</v>
+      </c>
+      <c r="S26" s="59">
+        <f t="shared" si="10"/>
+        <v>26.076809620810597</v>
+      </c>
+      <c r="T26" s="59">
+        <f t="shared" si="11"/>
+        <v>146.57762448614045</v>
+      </c>
+      <c r="U26" s="60">
+        <f t="shared" si="12"/>
+        <v>97.146927387997053</v>
+      </c>
+      <c r="V26">
+        <v>0.5</v>
+      </c>
+      <c r="X26">
+        <v>121.16517651536682</v>
+      </c>
+      <c r="Y26">
+        <v>79.309520235593411</v>
+      </c>
+      <c r="Z26">
+        <v>112.60550608207397</v>
+      </c>
+      <c r="AA26">
+        <v>26.076809620810597</v>
+      </c>
+      <c r="AB26">
+        <v>146.57762448614045</v>
+      </c>
+      <c r="AC26">
+        <v>97.146927387997053</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="51">
+        <v>88.141930997681229</v>
+      </c>
+      <c r="AF26" s="51">
+        <v>12.165525060596439</v>
+      </c>
+      <c r="AG26" s="51">
+        <v>114.35471131527551</v>
+      </c>
+      <c r="AH26" s="51">
+        <v>22.561028345356956</v>
+      </c>
+      <c r="AJ26" s="51"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="23" t="s">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B27" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="8">
@@ -4572,25 +10700,84 @@
       <c r="K27" s="1">
         <v>74</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="16">
         <v>100</v>
       </c>
       <c r="M27" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>-31</v>
       </c>
-      <c r="N27" s="55">
-        <f t="shared" si="10"/>
+      <c r="N27" s="44">
+        <f t="shared" si="25"/>
         <v>80</v>
       </c>
-      <c r="O27" s="63">
+      <c r="O27" s="56">
         <f t="shared" si="2"/>
         <v>85.796270315206598</v>
       </c>
-      <c r="P27" s="30"/>
+      <c r="P27" s="58">
+        <f t="shared" si="7"/>
+        <v>100.56838469419701</v>
+      </c>
+      <c r="Q27" s="59">
+        <f t="shared" si="8"/>
+        <v>104.35037134576953</v>
+      </c>
+      <c r="R27" s="59">
+        <f t="shared" si="9"/>
+        <v>154.25303886795876</v>
+      </c>
+      <c r="S27" s="59">
+        <f t="shared" si="10"/>
+        <v>87.664131775772461</v>
+      </c>
+      <c r="T27" s="59">
+        <f t="shared" si="11"/>
+        <v>121.49485585818027</v>
+      </c>
+      <c r="U27" s="60">
+        <f t="shared" si="12"/>
+        <v>113.66615650837559</v>
+      </c>
+      <c r="V27">
+        <v>0.5</v>
+      </c>
+      <c r="X27">
+        <v>100.56838469419701</v>
+      </c>
+      <c r="Y27">
+        <v>104.35037134576953</v>
+      </c>
+      <c r="Z27">
+        <v>154.25303886795876</v>
+      </c>
+      <c r="AA27">
+        <v>87.664131775772461</v>
+      </c>
+      <c r="AB27">
+        <v>121.49485585818027</v>
+      </c>
+      <c r="AC27">
+        <v>113.66615650837559</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="51">
+        <v>30.413812651491099</v>
+      </c>
+      <c r="AF27" s="51">
+        <v>44.011362169330773</v>
+      </c>
+      <c r="AG27" s="51">
+        <v>31.32091952673165</v>
+      </c>
+      <c r="AH27" s="51">
+        <v>34.928498393145958</v>
+      </c>
     </row>
-    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="24" t="s">
+    <row r="28" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="9">
@@ -4620,42 +10807,112 @@
       <c r="K28" s="3">
         <v>65</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="17">
         <v>21</v>
       </c>
-      <c r="M28" s="44">
-        <f t="shared" si="9"/>
+      <c r="M28" s="37">
+        <f t="shared" si="24"/>
         <v>-2.8</v>
       </c>
-      <c r="N28" s="56">
-        <f t="shared" si="10"/>
+      <c r="N28" s="45">
+        <f t="shared" si="25"/>
         <v>33.200000000000003</v>
       </c>
-      <c r="O28" s="64">
+      <c r="O28" s="57">
         <f t="shared" si="2"/>
         <v>33.317863076734078</v>
       </c>
+      <c r="P28" s="58">
+        <f t="shared" si="7"/>
+        <v>15.811388300841896</v>
+      </c>
+      <c r="Q28" s="59">
+        <f t="shared" si="8"/>
+        <v>56.435804238089851</v>
+      </c>
+      <c r="R28" s="59">
+        <f t="shared" si="9"/>
+        <v>40.496913462633174</v>
+      </c>
+      <c r="S28" s="59">
+        <f t="shared" si="10"/>
+        <v>94.069123520951337</v>
+      </c>
+      <c r="T28" s="59">
+        <f t="shared" si="11"/>
+        <v>40.8166632639171</v>
+      </c>
+      <c r="U28" s="60">
+        <f t="shared" si="12"/>
+        <v>49.52597855728667</v>
+      </c>
+      <c r="V28">
+        <v>0.5</v>
+      </c>
+      <c r="X28">
+        <v>15.811388300841896</v>
+      </c>
+      <c r="Y28">
+        <v>56.435804238089851</v>
+      </c>
+      <c r="Z28">
+        <v>40.496913462633174</v>
+      </c>
+      <c r="AA28">
+        <v>94.069123520951337</v>
+      </c>
+      <c r="AB28">
+        <v>40.8166632639171</v>
+      </c>
+      <c r="AC28">
+        <v>49.52597855728667</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="51">
+        <v>117.92370414806346</v>
+      </c>
+      <c r="AF28" s="51">
+        <v>53.450912059571067</v>
+      </c>
+      <c r="AG28" s="51">
+        <v>79.429213769242352</v>
+      </c>
+      <c r="AH28" s="51">
+        <v>23.086792761230392</v>
+      </c>
     </row>
-    <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="51" t="s">
+    <row r="29" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="60"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="51"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="22" t="s">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B30" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="7">
@@ -4670,7 +10927,7 @@
       <c r="F30" s="2">
         <v>-124</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="40">
         <v>6</v>
       </c>
       <c r="H30" s="7">
@@ -4685,24 +10942,73 @@
       <c r="K30" s="2">
         <v>31</v>
       </c>
-      <c r="L30" s="48">
+      <c r="L30" s="41">
         <v>12</v>
       </c>
       <c r="M30" s="7">
         <f>SUM(C30:G30)/5</f>
         <v>-34.799999999999997</v>
       </c>
-      <c r="N30" s="55">
+      <c r="N30" s="44">
         <f>SUM(H30:L30)/5</f>
         <v>9.6</v>
       </c>
-      <c r="O30" s="62">
+      <c r="O30" s="55">
         <f t="shared" si="2"/>
         <v>36.099861495579177</v>
       </c>
+      <c r="P30" s="58">
+        <f t="shared" si="7"/>
+        <v>20.615528128088304</v>
+      </c>
+      <c r="Q30" s="59">
+        <f>SQRT((D30)^2+(I30)^2)</f>
+        <v>122.80065146407001</v>
+      </c>
+      <c r="R30" s="59">
+        <f t="shared" si="9"/>
+        <v>86.092973000123536</v>
+      </c>
+      <c r="S30" s="59">
+        <f t="shared" si="10"/>
+        <v>127.81627439414747</v>
+      </c>
+      <c r="T30" s="59">
+        <f t="shared" si="11"/>
+        <v>13.416407864998739</v>
+      </c>
+      <c r="U30" s="60">
+        <f t="shared" si="12"/>
+        <v>74.148366970285608</v>
+      </c>
+      <c r="V30">
+        <v>0.25</v>
+      </c>
+      <c r="X30">
+        <v>20.615528128088304</v>
+      </c>
+      <c r="Y30">
+        <v>122.80065146407001</v>
+      </c>
+      <c r="Z30">
+        <v>86.092973000123536</v>
+      </c>
+      <c r="AA30">
+        <v>127.81627439414747</v>
+      </c>
+      <c r="AB30">
+        <v>13.416407864998739</v>
+      </c>
+      <c r="AC30">
+        <v>74.148366970285608</v>
+      </c>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="51"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="23" t="s">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B31" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="8">
@@ -4733,24 +11039,84 @@
       <c r="K31" s="1">
         <v>32</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="16">
         <v>60</v>
       </c>
       <c r="M31" s="7">
-        <f t="shared" ref="M31:M33" si="11">SUM(C31:G31)/5</f>
+        <f t="shared" ref="M31:M33" si="26">SUM(C31:G31)/5</f>
         <v>15.8</v>
       </c>
-      <c r="N31" s="55">
-        <f t="shared" ref="N31:N33" si="12">SUM(H31:L31)/5</f>
+      <c r="N31" s="44">
+        <f t="shared" ref="N31:N33" si="27">SUM(H31:L31)/5</f>
         <v>35.4</v>
       </c>
-      <c r="O31" s="63">
+      <c r="O31" s="56">
         <f t="shared" si="2"/>
         <v>38.765964453370692</v>
       </c>
+      <c r="P31" s="58">
+        <f t="shared" si="7"/>
+        <v>26.305892875931811</v>
+      </c>
+      <c r="Q31" s="59">
+        <f t="shared" si="8"/>
+        <v>92.282175960474618</v>
+      </c>
+      <c r="R31" s="59">
+        <f t="shared" si="9"/>
+        <v>127.47156545677157</v>
+      </c>
+      <c r="S31" s="59">
+        <f t="shared" si="10"/>
+        <v>74.249579123386283</v>
+      </c>
+      <c r="T31" s="59">
+        <f t="shared" si="11"/>
+        <v>172.75416058665562</v>
+      </c>
+      <c r="U31" s="60">
+        <f t="shared" si="12"/>
+        <v>98.612674800643987</v>
+      </c>
+      <c r="V31">
+        <v>0.25</v>
+      </c>
+      <c r="X31">
+        <v>26.305892875931811</v>
+      </c>
+      <c r="Y31">
+        <v>92.282175960474618</v>
+      </c>
+      <c r="Z31">
+        <v>127.47156545677157</v>
+      </c>
+      <c r="AA31">
+        <v>74.249579123386283</v>
+      </c>
+      <c r="AB31">
+        <v>172.75416058665562</v>
+      </c>
+      <c r="AC31">
+        <v>98.612674800643987</v>
+      </c>
+      <c r="AD31">
+        <v>0.5</v>
+      </c>
+      <c r="AE31" s="51">
+        <v>77.317527120310828</v>
+      </c>
+      <c r="AF31" s="51">
+        <v>121.16517651536682</v>
+      </c>
+      <c r="AG31" s="51">
+        <v>100.56838469419701</v>
+      </c>
+      <c r="AH31" s="51">
+        <v>15.811388300841896</v>
+      </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="23" t="s">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B32" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="8">
@@ -4778,22 +11144,82 @@
       <c r="K32" s="1">
         <v>-58</v>
       </c>
-      <c r="L32" s="17"/>
+      <c r="L32" s="16"/>
       <c r="M32" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="26"/>
         <v>-8.6</v>
       </c>
-      <c r="N32" s="55">
-        <f t="shared" si="12"/>
+      <c r="N32" s="44">
+        <f t="shared" si="27"/>
         <v>-21.2</v>
       </c>
-      <c r="O32" s="63">
+      <c r="O32" s="56">
         <f t="shared" si="2"/>
         <v>22.877936969928037</v>
       </c>
+      <c r="P32" s="58">
+        <f t="shared" si="7"/>
+        <v>61.814237842102365</v>
+      </c>
+      <c r="Q32" s="59">
+        <f t="shared" si="8"/>
+        <v>111.66467659918243</v>
+      </c>
+      <c r="R32" s="59">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="S32" s="59">
+        <f t="shared" si="10"/>
+        <v>68.264192663504048</v>
+      </c>
+      <c r="T32" s="59">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="60">
+        <f t="shared" si="12"/>
+        <v>55.748621420957761</v>
+      </c>
+      <c r="V32">
+        <v>0.25</v>
+      </c>
+      <c r="X32">
+        <v>61.814237842102365</v>
+      </c>
+      <c r="Y32">
+        <v>111.66467659918243</v>
+      </c>
+      <c r="Z32">
+        <v>37</v>
+      </c>
+      <c r="AA32">
+        <v>68.264192663504048</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>55.748621420957761</v>
+      </c>
+      <c r="AD32">
+        <v>0.5</v>
+      </c>
+      <c r="AE32" s="51">
+        <v>103.07764064044152</v>
+      </c>
+      <c r="AF32" s="51">
+        <v>79.309520235593411</v>
+      </c>
+      <c r="AG32" s="51">
+        <v>104.35037134576953</v>
+      </c>
+      <c r="AH32" s="51">
+        <v>56.435804238089851</v>
+      </c>
     </row>
-    <row r="33" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="24" t="s">
+    <row r="33" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="9">
@@ -4823,114 +11249,303 @@
       <c r="K33" s="3">
         <v>-61</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="17">
         <v>-74</v>
       </c>
-      <c r="M33" s="44">
-        <f t="shared" si="11"/>
+      <c r="M33" s="37">
+        <f t="shared" si="26"/>
         <v>-24.2</v>
       </c>
-      <c r="N33" s="56">
-        <f t="shared" si="12"/>
+      <c r="N33" s="45">
+        <f t="shared" si="27"/>
         <v>-63.6</v>
       </c>
-      <c r="O33" s="64">
+      <c r="O33" s="57">
         <f t="shared" si="2"/>
         <v>68.048512107172485</v>
       </c>
+      <c r="P33" s="58">
+        <f t="shared" si="7"/>
+        <v>94.175368329515976</v>
+      </c>
+      <c r="Q33" s="59">
+        <f t="shared" si="8"/>
+        <v>64.845971347493901</v>
+      </c>
+      <c r="R33" s="59">
+        <f t="shared" si="9"/>
+        <v>84.219950130595535</v>
+      </c>
+      <c r="S33" s="59">
+        <f t="shared" si="10"/>
+        <v>61.522353661088097</v>
+      </c>
+      <c r="T33" s="59">
+        <f t="shared" si="11"/>
+        <v>75.504966724050675</v>
+      </c>
+      <c r="U33" s="60">
+        <f t="shared" si="12"/>
+        <v>76.053722038548841</v>
+      </c>
+      <c r="V33">
+        <v>0.25</v>
+      </c>
+      <c r="X33">
+        <v>94.175368329515976</v>
+      </c>
+      <c r="Y33">
+        <v>64.845971347493901</v>
+      </c>
+      <c r="Z33">
+        <v>84.219950130595535</v>
+      </c>
+      <c r="AA33">
+        <v>61.522353661088097</v>
+      </c>
+      <c r="AB33">
+        <v>75.504966724050675</v>
+      </c>
+      <c r="AC33">
+        <v>76.053722038548841</v>
+      </c>
+      <c r="AD33">
+        <v>0.5</v>
+      </c>
+      <c r="AE33" s="51">
+        <v>68.87670143089025</v>
+      </c>
+      <c r="AF33" s="51">
+        <v>112.60550608207397</v>
+      </c>
+      <c r="AG33" s="51">
+        <v>154.25303886795876</v>
+      </c>
+      <c r="AH33" s="51">
+        <v>40.496913462633174</v>
+      </c>
+      <c r="AJ33" s="51"/>
     </row>
-    <row r="34" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="49" t="s">
+    <row r="34" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="61"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
+      <c r="AD34">
+        <v>0.5</v>
+      </c>
+      <c r="AE34" s="51">
+        <v>92.617492948146676</v>
+      </c>
+      <c r="AF34" s="51">
+        <v>26.076809620810597</v>
+      </c>
+      <c r="AG34" s="51">
+        <v>87.664131775772461</v>
+      </c>
+      <c r="AH34" s="51">
+        <v>94.069123520951337</v>
+      </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="19" t="s">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B35" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="13"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="13"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="62"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="48"/>
+      <c r="AD35">
+        <v>0.5</v>
+      </c>
+      <c r="AE35" s="51">
+        <v>90.801982357215081</v>
+      </c>
+      <c r="AF35" s="51">
+        <v>146.57762448614045</v>
+      </c>
+      <c r="AG35" s="51">
+        <v>121.49485585818027</v>
+      </c>
+      <c r="AH35" s="51">
+        <v>40.8166632639171</v>
+      </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="20" t="s">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="14"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="63"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="49"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="51"/>
+      <c r="AG36" s="51"/>
+      <c r="AH36" s="51"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="20" t="s">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="14"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="13"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="63"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="49"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
     </row>
-    <row r="38" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="35" t="s">
+    <row r="38" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="64"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="50"/>
+      <c r="AD38">
+        <v>0.25</v>
+      </c>
+      <c r="AE38" s="51">
+        <v>20.615528128088304</v>
+      </c>
+      <c r="AF38" s="51">
+        <v>26.305892875931811</v>
+      </c>
+      <c r="AG38" s="51">
+        <v>61.814237842102365</v>
+      </c>
+      <c r="AH38" s="51">
+        <v>94.175368329515976</v>
+      </c>
+    </row>
+    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AD39">
+        <v>0.25</v>
+      </c>
+      <c r="AE39" s="51">
+        <v>122.80065146407001</v>
+      </c>
+      <c r="AF39" s="51">
+        <v>92.282175960474618</v>
+      </c>
+      <c r="AG39" s="51">
+        <v>111.66467659918243</v>
+      </c>
+      <c r="AH39" s="51">
+        <v>64.845971347493901</v>
+      </c>
+    </row>
+    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AD40">
+        <v>0.25</v>
+      </c>
+      <c r="AE40" s="51">
+        <v>86.092973000123536</v>
+      </c>
+      <c r="AF40" s="51">
+        <v>127.47156545677157</v>
+      </c>
+      <c r="AG40" s="51">
+        <v>37</v>
+      </c>
+      <c r="AH40" s="51">
+        <v>84.219950130595535</v>
+      </c>
+    </row>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AD41">
+        <v>0.25</v>
+      </c>
+      <c r="AE41" s="51">
+        <v>127.81627439414747</v>
+      </c>
+      <c r="AF41" s="51">
+        <v>74.249579123386283</v>
+      </c>
+      <c r="AG41" s="51">
+        <v>68.264192663504048</v>
+      </c>
+      <c r="AH41" s="51">
+        <v>61.522353661088097</v>
+      </c>
+      <c r="AJ41" s="51"/>
+    </row>
+    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AD42">
+        <v>0.25</v>
+      </c>
+      <c r="AE42" s="51">
+        <v>13.416407864998739</v>
+      </c>
+      <c r="AF42" s="51">
+        <v>172.75416058665562</v>
+      </c>
+      <c r="AG42" s="51">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="51">
+        <v>75.504966724050675</v>
+      </c>
+    </row>
+    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AE43" s="51"/>
+      <c r="AF43" s="51"/>
+      <c r="AG43" s="51"/>
+      <c r="AH43" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="20">
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="B34:O34"/>
     <mergeCell ref="B29:O29"/>
@@ -4944,9 +11559,16 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="U2:U9"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="P3:P9"/>
+    <mergeCell ref="Q3:Q9"/>
+    <mergeCell ref="R3:R9"/>
+    <mergeCell ref="S3:S9"/>
+    <mergeCell ref="T3:T9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>